--- a/amplify/data/develop/local/editor_background_local.xlsx
+++ b/amplify/data/develop/local/editor_background_local.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1608,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -2757,10 +2757,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -5128,7 +5128,7 @@
         <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5295,6 +5295,606 @@
       </c>
       <c r="N76" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>holiday_2210_1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>holiday_2210_1.png</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_1.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_1.png</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>76</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>c5d7cd90-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_1.png</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_1.png</t>
+        </is>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>holiday_2210_2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>holiday_2210_2.png</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_2.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_2.png</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>77</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>c5d7cec6-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_2.png</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_2.png</t>
+        </is>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>holiday_2210_3</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>holiday_2210_3.png</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_3.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_3.png</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>78</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>c5d7cf66-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_3.png</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_3.png</t>
+        </is>
+      </c>
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>holiday_2210_4</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>holiday_2210_4.png</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>11</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_4.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_4.png</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>79</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>c5d7cfe8-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_4.png</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_4.png</t>
+        </is>
+      </c>
+      <c r="N80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>holiday_2210_5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>holiday_2210_5.png</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>12</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_5.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_5.png</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>80</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>c5d7d06a-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_5.png</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_5.png</t>
+        </is>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>holiday_2210_6</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>holiday_2210_6.png</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>13</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_6.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_6.png</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>81</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>c5d7d0ec-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_6.png</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_6.png</t>
+        </is>
+      </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>holiday_2210_7</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>holiday_2210_7.png</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_7.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_7.png</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>82</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>c5d7d164-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_7.png</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_7.png</t>
+        </is>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>holiday_2210_8</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>holiday_2210_8.png</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_8.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_8.png</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>83</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>c5d7d1e6-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_8.png</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_8.png</t>
+        </is>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>holiday_2210_9</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>holiday_2210_9.png</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_9.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_9.png</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>84</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>c5d7d25e-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_9.png</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_9.png</t>
+        </is>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>holiday_2210_10</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>holiday_2210_10.png</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>holiday</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>背景图片/download/holiday/holiday_2210_10.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>背景图片/thumbnail/holiday/holiday_2210_10.png</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>85</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>c5d7d2d6-5047-11ed-a047-acde48001122</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>background/download/holiday_2210_10.png</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>background/previews/holiday_2210_10.png</t>
+        </is>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
